--- a/similarities/split_global/harmonic_similarity_timestamps_231.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_231.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,702 +484,726 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_123</t>
+          <t>schubert-winterreise_46</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_192</t>
+          <t>schubert-winterreise_37</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:maj/F', 'F:min', 'C:maj/F', 'F:min', 'C:maj/F', 'F:min']]</t>
+          <t>['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
+          <t>['F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:21.900000', '0:00:52.440000')]</t>
+          <t>('0:00:29.220000', '0:01:03.280000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:47.680000', '0:01:02.460000')]</t>
+          <t>('0:00:45.580000', '0:00:59.100000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-123#t=21.9']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-46#t=29.22</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-192#t=47.68']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-37#t=45.58</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_115</t>
+          <t>jaah_52</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_21</t>
+          <t>schubert-winterreise_40</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['Bb', 'Bb:min', 'F']]</t>
+          <t>['C:7', 'F', 'C:7', 'F']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['F', 'F:min', 'C']]</t>
+          <t>['A:7', 'D:maj', 'A:7', 'D:maj']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:39.610440', '0:00:45.427039')]</t>
+          <t>('0:00:49.610000', '0:00:59.750000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:38.588000', '0:00:43.202000')]</t>
+          <t>('0:00:19.500000', '0:00:41.740000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-115#t=39.61044']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-52#t=49.61</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-21#t=38.588']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-40#t=19.5</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>jaah_25</t>
+          <t>isophonics_96</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_67</t>
+          <t>schubert-winterreise_26</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['G:min', 'C:min', 'G:min']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['A:min', 'D:min', 'A:min']]</t>
+          <t>['F:maj', 'A#:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:16.840000', '0:00:22.110000')]</t>
+          <t>('0:00:11.384000', '0:00:18.318000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:19.580793', '0:00:29.925283')]</t>
+          <t>('0:02:04.920000', '0:02:08.840000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-25#t=16.84']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-96#t=11.384</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-67#t=19.580793']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-26#t=124.92</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_180</t>
+          <t>schubert-winterreise_17</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_29</t>
+          <t>isophonics_275</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['Bb:min', 'F', 'Bb:min', 'F']]</t>
+          <t>['G:maj', 'D:maj/A', 'G:maj/B']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['D#:min/F#', 'A#:maj/F', 'D#:min/F#', 'A#:maj/F']]</t>
+          <t>['C', 'G', 'C']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:22.996837', '0:00:30.067314')]</t>
+          <t>('0:02:20.580000', '0:02:23.320000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:01:11.420000', '0:01:13.960000')]</t>
+          <t>('0:00:24.401147', '0:00:28.461467')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-180#t=22.996837']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-17#t=140.58</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-29#t=71.42']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-275#t=24.401147</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_57</t>
+          <t>jaah_29</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
+          <t>isophonics_115</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G', 'C', 'G']]</t>
+          <t>['Db', 'Db:min', 'Ab']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>['Bb', 'Bb:min', 'F']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:21.213174', '0:00:28.074671')]</t>
+          <t>('0:02:02.570000', '0:02:04.490000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:01:58.440000', '0:02:02.340000')]</t>
+          <t>('0:00:39.610440', '0:00:45.427039')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-57#t=21.213174']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-29#t=122.57</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-186#t=118.44']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-115#t=39.61044</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_172</t>
+          <t>isophonics_15</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>jaah_79</t>
+          <t>schubert-winterreise_202</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['E:maj', 'B:7', 'E:maj']]</t>
+          <t>['C', 'F', 'C']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['Bb', 'F:7', 'Bb']]</t>
+          <t>['F:maj/A', 'A#:maj', 'F:maj/C']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:00.260000', '0:00:07.340000')]</t>
+          <t>('0:01:04.514625', '0:01:27.246961')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:07.590000', '0:00:14.680000')]</t>
+          <t>('0:01:01.480000', '0:01:03.580000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-172#t=0.26']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-15#t=64.514625</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-79#t=7.59']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-202#t=61.48</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_96</t>
+          <t>schubert-winterreise_10</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_123</t>
+          <t>schubert-winterreise_66</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['C:maj', 'A:maj', 'D:maj'], ['A:maj', 'D:maj', 'C:maj'], ['D:maj', 'G:maj', 'D:maj']]</t>
+          <t>['C:min', 'F:7/A', 'A#:maj']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['D', 'B', 'E'], ['B', 'E', 'D'], ['E', 'A', 'E']]</t>
+          <t>['C:min', 'F:7/C', 'A#']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:01:24.701000', '0:01:30.135000'), ('0:01:12.543000', '0:01:20.563000'), ('0:00:11.384000', '0:00:18.318000')]</t>
+          <t>('0:00:37.200000', '0:00:44.560000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:24.425238', '0:00:33.479637'), ('0:00:28.575754', '0:00:34.292335'), ('0:00:08.413696', '0:00:11.072593')]</t>
+          <t>('0:00:38.060000', '0:00:41.080000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-96#t=84.701', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-96#t=72.543', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-96#t=11.384']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-10#t=37.2</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-123#t=24.425238', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-123#t=28.575754', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-123#t=8.413696']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-66#t=38.06</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_64</t>
+          <t>schubert-winterreise_205</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
+          <t>isophonics_213</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>['C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>['A', 'E', 'E:7', 'A', 'E']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:01:14.879000', '0:01:25.949000')]</t>
+          <t>('0:01:00.100000', '0:01:06.800000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:18.320000', '0:00:25.820000')]</t>
+          <t>('0:00:14.752537', '0:00:30.298296')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-64#t=74.879']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=60.1</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=18.32']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr">
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-213#t=14.752537</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
         <is>
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_79</t>
+          <t>isophonics_183</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_136</t>
+          <t>jaah_86</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E', 'B', 'A', 'E']]</t>
+          <t>['D', 'A:7', 'D']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A', 'E/4', 'D/5', 'A']]</t>
+          <t>['Bb', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:07.284457', '0:00:25.505471')]</t>
+          <t>('0:01:09.520470', '0:01:14.942329')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:34.232000', '0:00:44.796000')]</t>
+          <t>('0:00:13.390000', '0:00:17.230000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-79#t=7.284457']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-183#t=69.52047</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-136#t=34.232']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-86#t=13.39</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_122</t>
+          <t>schubert-winterreise_60</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
+          <t>schubert-winterreise_94</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'E:min/B', 'B:min']]</t>
+          <t>['G:min', 'D:maj/G', 'G:min']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min'], ['G:min/A#', 'C:min', 'G:min/A#']]</t>
+          <t>['A#:min', 'F:maj', 'A#:min']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:01:20.200000', '0:01:26.860000'), ('0:00:26.200000', '0:00:33.960000')]</t>
+          <t>('0:00:06.300000', '0:00:14.360000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:47.580000', '0:00:50.040000'), ('0:01:37.880000', '0:01:48.980000')]</t>
+          <t>('0:00:15.600000', '0:00:24.080000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-122#t=80.2', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-122#t=26.2']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-60#t=6.3</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=47.58', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=97.88']</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-94#t=15.6</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
         <is>
           <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_296</t>
+          <t>schubert-winterreise_29</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>jaah_52</t>
+          <t>schubert-winterreise_187</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj', 'G/3']]</t>
+          <t>['A#:min', 'F:maj/A', 'A#:min']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['F', 'Bb', 'F']]</t>
+          <t>['C:min/G', 'G', 'C:min']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:05.146000', '0:00:09.474000')]</t>
+          <t>('0:00:11.440000', '0:00:16.380000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:01:02.530000', '0:01:09.910000')]</t>
+          <t>('0:00:14.080000', '0:00:20.540000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-296#t=5.146']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-29#t=11.44</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-52#t=62.53']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-187#t=14.08</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>jaah_7</t>
+          <t>schubert-winterreise_186</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>jaah_27</t>
+          <t>schubert-winterreise_34</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['Eb', 'F:min7', 'Bb:7'], ['F:min7', 'Bb:7', 'Eb']]</t>
+          <t>['F:min', 'C:7', 'F:min']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['D', 'E:min7', 'A:7'], ['E:min7', 'A:7', 'D']]</t>
+          <t>['C:min/G', 'G:7', 'C:min']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:09.530000', '0:00:14.240000'), ('0:00:08.350000', '0:00:11.880000')]</t>
+          <t>('0:00:08.460000', '0:00:13.460000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:06.700000', '0:00:10.860000'), ('0:00:08.780000', '0:00:16.050000')]</t>
+          <t>('0:00:21.940000', '0:00:27.520000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-7#t=9.53', 'https://soundcloud.com/jacopo-de-berardinis/jaah-7#t=8.35']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-186#t=8.46</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-27#t=6.7', 'https://soundcloud.com/jacopo-de-berardinis/jaah-27#t=8.78']</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-34#t=21.94</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_137</t>
+          <t>isophonics_96</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
+          <t>schubert-winterreise_53</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj', 'A:maj']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['G:min', 'C:min/G', 'G:min', 'D:7', 'G:min']]</t>
+          <t>['E:maj/G#', 'A:maj', 'E:maj', 'B:maj']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:11.200000', '0:00:28.900000')]</t>
+          <t>('0:00:11.384000', '0:00:18.837000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:00.500000', '0:00:07.720000')]</t>
+          <t>('0:00:55.680000', '0:01:06.100000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-137#t=11.2']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-96#t=11.384</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-82#t=0.5']</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-53#t=55.68</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
+          <t>schubert-winterreise_158</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>jaah_13</t>
+          <t>schubert-winterreise_85</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj']]</t>
+          <t>['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb']]</t>
+          <t>['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:44', '0:01:01.060000')]</t>
+          <t>('0:00:10.260000', '0:00:21.600000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:06.590000', '0:00:14.660000')]</t>
+          <t>('0:00:01.260000', '0:00:07.700000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-74#t=44.0']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-158#t=10.26</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-13#t=6.59']</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-85#t=1.26</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
+          <t>schubert-winterreise_199</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_71</t>
+          <t>schubert-winterreise_203</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:7/D', 'C:min']]</t>
+          <t>['G:maj', 'C:maj/G', 'G:maj']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:47.580000', '0:00:50.040000')]</t>
+          <t>('0:01:02.200000', '0:01:04.400000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:00.360000', '0:00:07.140000')]</t>
+          <t>('0:00:18.260000', '0:00:24.820000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=47.58']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-199#t=62.2</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-71#t=0.36']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=18.26</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
         <is>
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
